--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -98,25 +98,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>4886326</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4724400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>7200900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1511287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -129,8 +129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="314325"/>
-          <a:ext cx="4552950" cy="3414712"/>
+          <a:off x="5572126" y="276226"/>
+          <a:ext cx="2314574" cy="1406511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -142,19 +142,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4886326</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1511287</xdr:rowOff>
+      <xdr:rowOff>3568211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -173,8 +173,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572126" y="276226"/>
-          <a:ext cx="2314574" cy="1406511"/>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="4762500" cy="3568211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,7 +481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="88.625" customWidth="1"/>
+    <col min="2" max="2" width="99.875" customWidth="1"/>
     <col min="3" max="3" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="354.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
